--- a/biology/Zoologie/Broiliellus/Broiliellus.xlsx
+++ b/biology/Zoologie/Broiliellus/Broiliellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Broiliellus est un genre fossile de temnospondyles dissorophoïdes de la famille des Dissorophidae. Broiliellus est le plus étroitement lié au genre Dissorophus, et les deux ont été placés dans la sous-famille Dissorophinae. Broiliellus est connu de cinq espèces du Permien inférieur avec pour espèce type Broiliellus texensis et les autres espèces sont Broiliellus brevis, Broiliellus olsoni, Broiliellus arroyoensis et Broiliellus reiszi. 
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On pense maintenant qu'une espèce supplémentaire, Broiliellus novomexicanus, qui s'appelait à l'origine Aspidosaurus novomexicanus, ne fait pas partie du genre en tant que membre de la sous-famille des Eucacopinae[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On pense maintenant qu'une espèce supplémentaire, Broiliellus novomexicanus, qui s'appelait à l'origine Aspidosaurus novomexicanus, ne fait pas partie du genre en tant que membre de la sous-famille des Eucacopinae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Histoire de l'étude</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Broiliellus a été créé en 1914 par le paléontologue américain Samuel Wendell Williston (1851-1918) sur la base de deux crânes presque complets en articulation avec du matériel post-crânien datant du début du Permien et en provenance du Texas. Cette espèce a reçu le nom de Broiliellus texensis, le nom du genre faisant référence au paléontologue allemand Ferdinand Broili, et le nom de l'espèce étant pour la provenance géographique[2]. L'holotype est actuellement déposé au Field Museum. Une deuxième espèce, Broiliellus brevis, issue du lit d'ossements d'Archer City au Texas, a été nommée en 1964 par le paléontologue canadien Robert L. Carroll ; l'holotype de cette espèce est actuellement déposé au Museum Of Comparative Zoology[3]. Deux autres espèces, découvertes au Texas, ont été nommées en 1967 par le paléontologue américain Robert DeMar, Broiliellus olsoni et Broiliellus arroyoensis[4]. L'espèce la plus récente à être décrite est Broiliellus reiszi en 2013 par le paléontologue canadien Robert Holmes et son équipe[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Broiliellus a été créé en 1914 par le paléontologue américain Samuel Wendell Williston (1851-1918) sur la base de deux crânes presque complets en articulation avec du matériel post-crânien datant du début du Permien et en provenance du Texas. Cette espèce a reçu le nom de Broiliellus texensis, le nom du genre faisant référence au paléontologue allemand Ferdinand Broili, et le nom de l'espèce étant pour la provenance géographique. L'holotype est actuellement déposé au Field Museum. Une deuxième espèce, Broiliellus brevis, issue du lit d'ossements d'Archer City au Texas, a été nommée en 1964 par le paléontologue canadien Robert L. Carroll ; l'holotype de cette espèce est actuellement déposé au Museum Of Comparative Zoology. Deux autres espèces, découvertes au Texas, ont été nommées en 1967 par le paléontologue américain Robert DeMar, Broiliellus olsoni et Broiliellus arroyoensis. L'espèce la plus récente à être décrite est Broiliellus reiszi en 2013 par le paléontologue canadien Robert Holmes et son équipe.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 mai 2023)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 mai 2023) :
 Broiliellus arroyoensis DeMar, 1967
 Broiliellus brevis Carroll, 1964
 Broiliellus olsoni DeMar, 1967
@@ -608,12 +626,49 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique de Schoch (2012) a révélé que le genre Broiliellus était le plus étroitement lié au genre Dissorophus[1]. Cependant, les quatre premières espèces décrites de Broiliellus n'ont pas formé leur propre clade, mais plutôt une polytomie (relation évolutive non résolue) avec le genre Dissorophus.
-Holmes et al. (2013) ont nommé une nouvelle espèce de Broiliellus, Broiliellus reiszi[5]. Ils ont effectué deux analyses phylogénétiques en utilisant la matrice de données de Schoch (2012). Cette analyse a donné une topologie plus résolue et un Broiliellus monophylétique. 
-Cladogramme dans Dissorophoidea
-Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al.[7], et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique de Schoch (2012) a révélé que le genre Broiliellus était le plus étroitement lié au genre Dissorophus. Cependant, les quatre premières espèces décrites de Broiliellus n'ont pas formé leur propre clade, mais plutôt une polytomie (relation évolutive non résolue) avec le genre Dissorophus.
+Holmes et al. (2013) ont nommé une nouvelle espèce de Broiliellus, Broiliellus reiszi. Ils ont effectué deux analyses phylogénétiques en utilisant la matrice de données de Schoch (2012). Cette analyse a donné une topologie plus résolue et un Broiliellus monophylétique. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Broiliellus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Broiliellus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogramme dans Dissorophoidea</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al., et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d).
 </t>
         </is>
       </c>
